--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_87_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_87_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.2732943523630533, 2.991364227372224]</t>
+          <t>[2.269303688485593, 2.9953548912496846]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.08899801559296838, 0.2900059849547678]</t>
+          <t>[-0.08933650121644954, 0.29034447057824897]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.2911287807761151</v>
+        <v>0.2919792284188079</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2911287807761151</v>
+        <v>0.2919792284188079</v>
       </c>
       <c r="W2" t="n">
         <v>15.9701701701706</v>
